--- a/Raj Chudasama/2022-12-15/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
+++ b/Raj Chudasama/2022-12-15/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>Guest Name</t>
   </si>
@@ -34,13 +34,10 @@
     <t>Arrival Date</t>
   </si>
   <si>
-    <t>Depart Date</t>
-  </si>
-  <si>
     <t>Room Type</t>
   </si>
   <si>
-    <t>BIRMAN/LORI</t>
+    <t xml:space="preserve">BIRMAN/LORI </t>
   </si>
   <si>
     <t>Brown/McClinton</t>
@@ -52,25 +49,25 @@
     <t>Cano/Gavito</t>
   </si>
   <si>
-    <t>DEVANE/MELISSA</t>
+    <t xml:space="preserve">DEVANE/MELISSA </t>
   </si>
   <si>
     <t>Jacobs/Gabriel</t>
   </si>
   <si>
-    <t>JACOBS/WILLIE</t>
+    <t xml:space="preserve">JACOBS/WILLIE </t>
   </si>
   <si>
     <t>Kelly/Jessica</t>
   </si>
   <si>
-    <t>MINNEY/SCOTT</t>
-  </si>
-  <si>
-    <t>Plath/Stuart</t>
-  </si>
-  <si>
-    <t>Sunderland/Carol</t>
+    <t xml:space="preserve">MINNEY/SCOTT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plath/Stuart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunderland/Carol </t>
   </si>
   <si>
     <t>Sunderland/Sarah</t>
@@ -79,25 +76,28 @@
     <t>Wilson/Ashleigh</t>
   </si>
   <si>
-    <t>YOUNG/CARLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S </t>
-  </si>
-  <si>
-    <t>EXPEDIA</t>
-  </si>
-  <si>
-    <t>BOOKING COM</t>
-  </si>
-  <si>
-    <t>OMNI AIR</t>
-  </si>
-  <si>
-    <t>HOTELBEDS DIRECT CON</t>
+    <t xml:space="preserve">YOUNG/CARLA </t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPEDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOKING COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMNI AIR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOTELBEDS DIRECT CON </t>
+  </si>
+  <si>
+    <t>$60.50</t>
   </si>
   <si>
     <t>$112.23</t>
@@ -136,6 +136,9 @@
     <t>$106.00</t>
   </si>
   <si>
+    <t>L-F3F</t>
+  </si>
+  <si>
     <t>L-R3X</t>
   </si>
   <si>
@@ -160,7 +163,7 @@
     <t>S-MFR</t>
   </si>
   <si>
-    <t>12/15/2022</t>
+    <t>12/22/2022</t>
   </si>
   <si>
     <t>NKJ</t>
@@ -527,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,187 +558,181 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="B2" t="s">
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -744,18 +741,18 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -764,107 +761,107 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
